--- a/1 - Avant Projet/2 - Outils/6 - QQOQCP-C AP.xlsx
+++ b/1 - Avant Projet/2 - Outils/6 - QQOQCP-C AP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59163D88-0212-4A9B-A768-06A139D5FBDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F35625F-EBDA-4115-9E22-46D63F12515F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Qui</t>
   </si>
@@ -70,10 +70,13 @@
     <t>1 livrable</t>
   </si>
   <si>
-    <t>Plusieurs Lieux</t>
-  </si>
-  <si>
     <t>3 MOE + 1 MOA</t>
+  </si>
+  <si>
+    <t>Sur l'ordinateur et en réunion</t>
+  </si>
+  <si>
+    <t>La totalité des modules vus en cours + 1 Logiciel gratuit</t>
   </si>
 </sst>
 </file>
@@ -394,19 +397,19 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -414,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -422,10 +425,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -436,7 +439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -444,10 +447,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -458,15 +461,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>

--- a/1 - Avant Projet/2 - Outils/6 - QQOQCP-C AP.xlsx
+++ b/1 - Avant Projet/2 - Outils/6 - QQOQCP-C AP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F35625F-EBDA-4115-9E22-46D63F12515F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Qui</t>
   </si>
@@ -77,12 +76,15 @@
   </si>
   <si>
     <t>La totalité des modules vus en cours + 1 Logiciel gratuit</t>
+  </si>
+  <si>
+    <t>3 étudiants lancent la réalisation sous la surveillance du MOA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,18 +395,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -479,6 +481,9 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
